--- a/output/vlm_analysis_result_20251217_152208.xlsx
+++ b/output/vlm_analysis_result_20251217_152208.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - F&amp;F\개발 코드\vlm_image\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37D558B-7460-46AE-BC15-FC9ECECE4374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7977488-CE04-4BD2-8FD5-FBFE568EB388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="423">
   <si>
     <t>Image</t>
   </si>
@@ -1025,9 +1025,6 @@
   </si>
   <si>
     <t>Flats</t>
-  </si>
-  <si>
-    <t>Maison Margiela</t>
   </si>
   <si>
     <t>Tabi Flats</t>
@@ -1295,6 +1292,14 @@
   </si>
   <si>
     <t>park/nature/forest, outdoor-exercise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maison Margiela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t shirt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1667,11 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B680" sqref="B680"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="D338" sqref="D338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1708,16 +1712,16 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1769,10 +1773,10 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1813,10 +1817,10 @@
         <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1833,7 +1837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1918,16 +1922,16 @@
         <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1979,10 +1983,10 @@
         <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1990,10 +1994,10 @@
         <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2001,10 +2005,10 @@
         <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2056,10 +2060,10 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2067,10 +2071,10 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2078,10 +2082,10 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2111,10 +2115,10 @@
         <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2133,10 +2137,10 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2166,10 +2170,10 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2177,10 +2181,10 @@
         <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2197,7 +2201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>83</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>83</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>83</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>83</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>83</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>83</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>83</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>83</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>83</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>83</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>83</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>83</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>83</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>83</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>83</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>83</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>83</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>83</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>83</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>83</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>83</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>83</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>83</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>83</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>83</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>83</v>
       </c>
@@ -3422,7 +3426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>83</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>83</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>83</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>83</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>150</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>150</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>150</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>150</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>150</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>150</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>150</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>150</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>150</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>150</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>150</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>150</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>150</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>150</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>150</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>150</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>150</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>150</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>150</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>150</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>150</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>150</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>150</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>150</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>150</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>150</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>150</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>150</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>150</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>150</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>150</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>150</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>150</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>150</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>150</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>150</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>150</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>150</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>150</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>150</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>150</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>150</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>150</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>150</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>150</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>150</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>150</v>
       </c>
@@ -4052,7 +4056,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>150</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>150</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>150</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>150</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>150</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>150</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>150</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>150</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>150</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>150</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>150</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>150</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>181</v>
       </c>
@@ -4201,7 +4205,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>181</v>
       </c>
@@ -4212,7 +4216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>181</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>181</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>181</v>
       </c>
@@ -4245,7 +4249,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>181</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>181</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>181</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>181</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>181</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>181</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>181</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>181</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>181</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>181</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>181</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>181</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>181</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>181</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>181</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>181</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>181</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>181</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>181</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>181</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>181</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>181</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>181</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>181</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>181</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>181</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>181</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>181</v>
       </c>
@@ -4577,7 +4581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>181</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>181</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>181</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>181</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>181</v>
       </c>
@@ -4632,7 +4636,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>181</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>181</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>181</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>181</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>181</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>181</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>181</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>181</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>181</v>
       </c>
@@ -4742,7 +4746,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>181</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>181</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>181</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>181</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>181</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>181</v>
       </c>
@@ -4808,7 +4812,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>181</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>221</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>221</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>221</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>221</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>221</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>221</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>221</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>221</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>221</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>221</v>
       </c>
@@ -4935,7 +4939,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>221</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>221</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>221</v>
       </c>
@@ -4968,7 +4972,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>221</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>221</v>
       </c>
@@ -4996,7 +5000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>221</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>221</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>221</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>221</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>221</v>
       </c>
@@ -5051,7 +5055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>221</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>221</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>221</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>221</v>
       </c>
@@ -5101,7 +5105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>221</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>221</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>221</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>221</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>221</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>221</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>221</v>
       </c>
@@ -5178,7 +5182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>221</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>221</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>221</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>221</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>221</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>221</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>221</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>221</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>221</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>221</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>221</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>221</v>
       </c>
@@ -5310,7 +5314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>221</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>221</v>
       </c>
@@ -5332,15 +5336,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>257</v>
       </c>
       <c r="B318" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C318" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D318" t="s">
         <v>9</v>
@@ -5349,7 +5353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>257</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>257</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>257</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>257</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>257</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>257</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>257</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>257</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>257</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>257</v>
       </c>
@@ -5465,7 +5469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>257</v>
       </c>
@@ -5476,7 +5480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>257</v>
       </c>
@@ -5487,7 +5491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>257</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>257</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>257</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>257</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>257</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>257</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>257</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>257</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>257</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>257</v>
       </c>
@@ -5603,7 +5607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>257</v>
       </c>
@@ -5614,7 +5618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>257</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>257</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>257</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>257</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>257</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>257</v>
       </c>
@@ -5686,7 +5690,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>257</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>257</v>
       </c>
@@ -5708,7 +5712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>257</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D350" t="s">
         <v>9</v>
@@ -5725,7 +5729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>257</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>257</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>257</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>257</v>
       </c>
@@ -5769,7 +5773,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>257</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>257</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>257</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>257</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>257</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>257</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>257</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>257</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>257</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>257</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>257</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>257</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>257</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>257</v>
       </c>
@@ -5935,7 +5939,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>257</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>257</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>257</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>257</v>
       </c>
@@ -5979,7 +5983,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>257</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>257</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>257</v>
       </c>
@@ -6012,7 +6016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>257</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>257</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>257</v>
       </c>
@@ -6051,7 +6055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>257</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>257</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>257</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>257</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>257</v>
       </c>
@@ -6106,7 +6110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>257</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>257</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>257</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>257</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>257</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>257</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>257</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>257</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>257</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>257</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>257</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>257</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>257</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>257</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>257</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>257</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>257</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>257</v>
       </c>
@@ -6316,7 +6320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>257</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>257</v>
       </c>
@@ -6335,10 +6339,10 @@
         <v>71</v>
       </c>
       <c r="E403" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>257</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>257</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>257</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>257</v>
       </c>
@@ -6379,10 +6383,10 @@
         <v>79</v>
       </c>
       <c r="E407" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>257</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>293</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>293</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>293</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>293</v>
       </c>
@@ -6443,7 +6447,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>293</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>293</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>293</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>293</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>293</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>293</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>293</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>293</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>293</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>293</v>
       </c>
@@ -6559,7 +6563,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>293</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>293</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>293</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>293</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>293</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>293</v>
       </c>
@@ -6625,7 +6629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>293</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>293</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>293</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>293</v>
       </c>
@@ -6669,7 +6673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>293</v>
       </c>
@@ -6680,7 +6684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>293</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>293</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>293</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>293</v>
       </c>
@@ -6724,7 +6728,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>293</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>293</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>304</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>304</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>304</v>
       </c>
@@ -6785,7 +6789,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>304</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>304</v>
       </c>
@@ -6807,7 +6811,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>304</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>304</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>304</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>304</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>304</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>304</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>304</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>304</v>
       </c>
@@ -6901,7 +6905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>304</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>304</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>304</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>304</v>
       </c>
@@ -6945,7 +6949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>304</v>
       </c>
@@ -6956,7 +6960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>304</v>
       </c>
@@ -6967,7 +6971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>304</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>304</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>304</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>304</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>304</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>304</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>304</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>304</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>304</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>304</v>
       </c>
@@ -7089,7 +7093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>304</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>304</v>
       </c>
@@ -7111,7 +7115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>304</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>304</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>304</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>304</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>304</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>304</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>304</v>
       </c>
@@ -7194,7 +7198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>304</v>
       </c>
@@ -7205,7 +7209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>304</v>
       </c>
@@ -7216,7 +7220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>304</v>
       </c>
@@ -7227,7 +7231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>304</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>304</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>304</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>304</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>304</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>304</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>304</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>304</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>304</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>304</v>
       </c>
@@ -7343,7 +7347,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>304</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>304</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>304</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>304</v>
       </c>
@@ -7387,7 +7391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>304</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>304</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>304</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>304</v>
       </c>
@@ -7431,7 +7435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>304</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>304</v>
       </c>
@@ -7453,7 +7457,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>304</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>304</v>
       </c>
@@ -7475,7 +7479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>304</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>304</v>
       </c>
@@ -7497,7 +7501,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>304</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>325</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>325</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>325</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>325</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>325</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>325</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>325</v>
       </c>
@@ -7591,7 +7595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>325</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>325</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>325</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>325</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>325</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>325</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>325</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>325</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>325</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>325</v>
       </c>
@@ -7707,7 +7711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>325</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>325</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>325</v>
       </c>
@@ -7746,7 +7750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>325</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>325</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>325</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>325</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>325</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>325</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>325</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>325</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>325</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>325</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>325</v>
       </c>
@@ -7873,7 +7877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>325</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>325</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>325</v>
       </c>
@@ -7909,10 +7913,10 @@
         <v>86</v>
       </c>
       <c r="E539" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>325</v>
       </c>
@@ -7920,10 +7924,10 @@
         <v>88</v>
       </c>
       <c r="E540" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>325</v>
       </c>
@@ -7934,7 +7938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>325</v>
       </c>
@@ -7945,7 +7949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>325</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>325</v>
       </c>
@@ -7967,7 +7971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>325</v>
       </c>
@@ -7978,7 +7982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>325</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>325</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>325</v>
       </c>
@@ -8011,7 +8015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>325</v>
       </c>
@@ -8019,16 +8023,16 @@
         <v>200</v>
       </c>
       <c r="C549" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D549" t="s">
         <v>88</v>
       </c>
       <c r="E549" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>325</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>325</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>325</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>325</v>
       </c>
@@ -8072,7 +8076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>325</v>
       </c>
@@ -8080,10 +8084,10 @@
         <v>203</v>
       </c>
       <c r="E554" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>325</v>
       </c>
@@ -8094,7 +8098,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>325</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>325</v>
       </c>
@@ -8116,7 +8120,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>325</v>
       </c>
@@ -8127,7 +8131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>325</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>325</v>
       </c>
@@ -8146,10 +8150,10 @@
         <v>56</v>
       </c>
       <c r="E560" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>325</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>325</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>325</v>
       </c>
@@ -8179,10 +8183,10 @@
         <v>61</v>
       </c>
       <c r="E563" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>325</v>
       </c>
@@ -8193,7 +8197,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>325</v>
       </c>
@@ -8204,7 +8208,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>325</v>
       </c>
@@ -8212,10 +8216,10 @@
         <v>67</v>
       </c>
       <c r="E566" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>325</v>
       </c>
@@ -8223,10 +8227,10 @@
         <v>69</v>
       </c>
       <c r="E567" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>325</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>325</v>
       </c>
@@ -8245,10 +8249,10 @@
         <v>73</v>
       </c>
       <c r="E569" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>325</v>
       </c>
@@ -8259,7 +8263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>325</v>
       </c>
@@ -8267,10 +8271,10 @@
         <v>77</v>
       </c>
       <c r="E571" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>325</v>
       </c>
@@ -8281,7 +8285,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>325</v>
       </c>
@@ -8289,12 +8293,12 @@
         <v>81</v>
       </c>
       <c r="E573" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A574" t="s">
-        <v>346</v>
       </c>
       <c r="B574" t="s">
         <v>7</v>
@@ -8306,12 +8310,12 @@
         <v>9</v>
       </c>
       <c r="E574" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D575" t="s">
         <v>11</v>
@@ -8320,9 +8324,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D576" t="s">
         <v>13</v>
@@ -8331,9 +8335,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D577" t="s">
         <v>15</v>
@@ -8342,9 +8346,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D578" t="s">
         <v>17</v>
@@ -8353,9 +8357,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D579" t="s">
         <v>19</v>
@@ -8364,9 +8368,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D580" t="s">
         <v>21</v>
@@ -8375,9 +8379,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D581" t="s">
         <v>23</v>
@@ -8386,9 +8390,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D582" t="s">
         <v>25</v>
@@ -8397,9 +8401,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B583" t="s">
         <v>100</v>
@@ -8414,9 +8418,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D584" t="s">
         <v>11</v>
@@ -8425,9 +8429,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D585" t="s">
         <v>13</v>
@@ -8436,9 +8440,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D586" t="s">
         <v>15</v>
@@ -8447,9 +8451,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D587" t="s">
         <v>103</v>
@@ -8458,9 +8462,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D588" t="s">
         <v>107</v>
@@ -8469,9 +8473,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D589" t="s">
         <v>21</v>
@@ -8480,9 +8484,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D590" t="s">
         <v>110</v>
@@ -8491,9 +8495,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D591" t="s">
         <v>112</v>
@@ -8502,15 +8506,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B592" t="s">
         <v>27</v>
       </c>
       <c r="C592" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D592" t="s">
         <v>9</v>
@@ -8519,9 +8523,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D593" t="s">
         <v>11</v>
@@ -8530,9 +8534,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D594" t="s">
         <v>13</v>
@@ -8541,9 +8545,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D595" t="s">
         <v>15</v>
@@ -8552,9 +8556,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D596" t="s">
         <v>29</v>
@@ -8563,9 +8567,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D597" t="s">
         <v>31</v>
@@ -8574,9 +8578,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D598" t="s">
         <v>33</v>
@@ -8585,9 +8589,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D599" t="s">
         <v>35</v>
@@ -8596,15 +8600,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B600" t="s">
         <v>37</v>
       </c>
       <c r="C600" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D600" t="s">
         <v>9</v>
@@ -8613,9 +8617,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D601" t="s">
         <v>11</v>
@@ -8624,9 +8628,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D602" t="s">
         <v>13</v>
@@ -8635,9 +8639,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D603" t="s">
         <v>15</v>
@@ -8646,9 +8650,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D604" t="s">
         <v>41</v>
@@ -8657,31 +8661,31 @@
         <v>134</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D605" t="s">
         <v>47</v>
       </c>
       <c r="E605" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D606" t="s">
         <v>49</v>
       </c>
       <c r="E606" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D607" t="s">
         <v>50</v>
@@ -8690,9 +8694,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B608" t="s">
         <v>200</v>
@@ -8707,9 +8711,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D609" t="s">
         <v>11</v>
@@ -8718,9 +8722,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D610" t="s">
         <v>13</v>
@@ -8729,9 +8733,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D611" t="s">
         <v>15</v>
@@ -8740,20 +8744,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D612" t="s">
         <v>203</v>
       </c>
       <c r="E612" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D613" t="s">
         <v>205</v>
@@ -8762,31 +8766,31 @@
         <v>316</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D614" t="s">
         <v>207</v>
       </c>
       <c r="E614" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D615" t="s">
         <v>209</v>
       </c>
       <c r="E615" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B616" t="s">
         <v>271</v>
@@ -8801,9 +8805,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D617" t="s">
         <v>11</v>
@@ -8812,9 +8816,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D618" t="s">
         <v>13</v>
@@ -8823,9 +8827,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D619" t="s">
         <v>15</v>
@@ -8834,9 +8838,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D620" t="s">
         <v>273</v>
@@ -8845,9 +8849,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D621" t="s">
         <v>275</v>
@@ -8856,9 +8860,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B622" t="s">
         <v>52</v>
@@ -8867,9 +8871,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B623" t="s">
         <v>54</v>
@@ -8878,9 +8882,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B624" t="s">
         <v>56</v>
@@ -8889,9 +8893,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B625" t="s">
         <v>58</v>
@@ -8900,9 +8904,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B626" t="s">
         <v>60</v>
@@ -8911,9 +8915,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B627" t="s">
         <v>61</v>
@@ -8922,20 +8926,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B628" t="s">
         <v>63</v>
       </c>
       <c r="E628" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B629" t="s">
         <v>65</v>
@@ -8944,53 +8948,53 @@
         <v>173</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B630" t="s">
         <v>67</v>
       </c>
       <c r="E630" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B631" t="s">
         <v>69</v>
       </c>
       <c r="E631" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B632" t="s">
         <v>71</v>
       </c>
       <c r="E632" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B633" t="s">
         <v>73</v>
       </c>
       <c r="E633" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B634" t="s">
         <v>75</v>
@@ -8999,20 +9003,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B635" t="s">
         <v>77</v>
       </c>
       <c r="E635" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B636" t="s">
         <v>79</v>
@@ -9021,9 +9025,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B637" t="s">
         <v>81</v>
@@ -9032,48 +9036,48 @@
         <v>220</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B638" t="s">
         <v>7</v>
       </c>
       <c r="C638" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D638" t="s">
         <v>86</v>
       </c>
       <c r="E638" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D639" t="s">
         <v>88</v>
       </c>
       <c r="E639" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D640" t="s">
         <v>9</v>
       </c>
       <c r="E640" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D641" t="s">
         <v>11</v>
@@ -9082,9 +9086,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D642" t="s">
         <v>13</v>
@@ -9093,20 +9097,20 @@
         <v>159</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D643" t="s">
         <v>15</v>
       </c>
       <c r="E643" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D644" t="s">
         <v>17</v>
@@ -9115,9 +9119,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D645" t="s">
         <v>19</v>
@@ -9126,9 +9130,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D646" t="s">
         <v>21</v>
@@ -9137,9 +9141,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D647" t="s">
         <v>23</v>
@@ -9148,9 +9152,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D648" t="s">
         <v>25</v>
@@ -9159,9 +9163,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B649" t="s">
         <v>100</v>
@@ -9176,9 +9180,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D650" t="s">
         <v>11</v>
@@ -9187,9 +9191,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D651" t="s">
         <v>13</v>
@@ -9198,9 +9202,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D652" t="s">
         <v>15</v>
@@ -9209,9 +9213,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D653" t="s">
         <v>103</v>
@@ -9220,9 +9224,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D654" t="s">
         <v>107</v>
@@ -9231,9 +9235,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D655" t="s">
         <v>21</v>
@@ -9242,9 +9246,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D656" t="s">
         <v>110</v>
@@ -9253,9 +9257,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D657" t="s">
         <v>112</v>
@@ -9264,9 +9268,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B658" t="s">
         <v>52</v>
@@ -9275,9 +9279,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B659" t="s">
         <v>54</v>
@@ -9286,20 +9290,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B660" t="s">
         <v>56</v>
       </c>
       <c r="E660" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B661" t="s">
         <v>58</v>
@@ -9308,9 +9312,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B662" t="s">
         <v>60</v>
@@ -9319,31 +9323,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B663" t="s">
         <v>61</v>
       </c>
       <c r="E663" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B664" t="s">
         <v>63</v>
       </c>
       <c r="E664" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B665" t="s">
         <v>65</v>
@@ -9352,9 +9356,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B666" t="s">
         <v>67</v>
@@ -9363,42 +9367,42 @@
         <v>214</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B667" t="s">
         <v>69</v>
       </c>
       <c r="E667" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B668" t="s">
         <v>71</v>
       </c>
       <c r="E668" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B669" t="s">
         <v>73</v>
       </c>
       <c r="E669" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B670" t="s">
         <v>75</v>
@@ -9407,20 +9411,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B671" t="s">
         <v>77</v>
       </c>
       <c r="E671" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B672" t="s">
         <v>79</v>
@@ -9429,20 +9433,20 @@
         <v>302</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B673" t="s">
         <v>81</v>
       </c>
       <c r="E673" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B674" t="s">
         <v>7</v>
@@ -9459,7 +9463,7 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D675" t="s">
         <v>11</v>
@@ -9470,7 +9474,7 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D676" t="s">
         <v>13</v>
@@ -9481,7 +9485,7 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D677" t="s">
         <v>15</v>
@@ -9492,7 +9496,7 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D678" t="s">
         <v>19</v>
@@ -9503,7 +9507,7 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D679" t="s">
         <v>21</v>
@@ -9514,7 +9518,7 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D680" t="s">
         <v>23</v>
@@ -9525,7 +9529,7 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D681" t="s">
         <v>25</v>
@@ -9536,18 +9540,18 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D682" t="s">
         <v>17</v>
       </c>
       <c r="E682" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B683" t="s">
         <v>100</v>
@@ -9559,12 +9563,12 @@
         <v>9</v>
       </c>
       <c r="E683" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D684" t="s">
         <v>11</v>
@@ -9575,7 +9579,7 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D685" t="s">
         <v>13</v>
@@ -9586,7 +9590,7 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D686" t="s">
         <v>15</v>
@@ -9597,7 +9601,7 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D687" t="s">
         <v>103</v>
@@ -9608,7 +9612,7 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D688" t="s">
         <v>105</v>
@@ -9619,7 +9623,7 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D689" t="s">
         <v>110</v>
@@ -9630,7 +9634,7 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D690" t="s">
         <v>112</v>
@@ -9641,7 +9645,7 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D691" t="s">
         <v>21</v>
@@ -9652,13 +9656,13 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B692" t="s">
         <v>27</v>
       </c>
       <c r="C692" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D692" t="s">
         <v>9</v>
@@ -9669,7 +9673,7 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D693" t="s">
         <v>11</v>
@@ -9680,7 +9684,7 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D694" t="s">
         <v>13</v>
@@ -9691,7 +9695,7 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D695" t="s">
         <v>15</v>
@@ -9702,18 +9706,18 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D696" t="s">
         <v>29</v>
       </c>
       <c r="E696" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D697" t="s">
         <v>31</v>
@@ -9724,7 +9728,7 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D698" t="s">
         <v>35</v>
@@ -9735,18 +9739,18 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D699" t="s">
         <v>33</v>
       </c>
       <c r="E699" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B700" t="s">
         <v>37</v>
@@ -9758,34 +9762,34 @@
         <v>86</v>
       </c>
       <c r="E700" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D701" t="s">
         <v>88</v>
       </c>
       <c r="E701" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D702" t="s">
         <v>9</v>
       </c>
       <c r="E702" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D703" t="s">
         <v>11</v>
@@ -9796,7 +9800,7 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D704" t="s">
         <v>13</v>
@@ -9807,7 +9811,7 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D705" t="s">
         <v>15</v>
@@ -9818,7 +9822,7 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D706" t="s">
         <v>41</v>
@@ -9829,7 +9833,7 @@
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D707" t="s">
         <v>43</v>
@@ -9840,7 +9844,7 @@
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D708" t="s">
         <v>47</v>
@@ -9851,7 +9855,7 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D709" t="s">
         <v>49</v>
@@ -9862,7 +9866,7 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D710" t="s">
         <v>50</v>
@@ -9873,24 +9877,24 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B711" t="s">
         <v>84</v>
       </c>
       <c r="C711" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D711" t="s">
         <v>9</v>
       </c>
       <c r="E711" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D712" t="s">
         <v>11</v>
@@ -9901,7 +9905,7 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D713" t="s">
         <v>13</v>
@@ -9912,7 +9916,7 @@
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D714" t="s">
         <v>15</v>
@@ -9923,18 +9927,18 @@
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D715" t="s">
         <v>94</v>
       </c>
       <c r="E715" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B716" t="s">
         <v>52</v>
@@ -9945,7 +9949,7 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B717" t="s">
         <v>54</v>
@@ -9956,7 +9960,7 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B718" t="s">
         <v>56</v>
@@ -9967,7 +9971,7 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B719" t="s">
         <v>58</v>
@@ -9978,7 +9982,7 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B720" t="s">
         <v>60</v>
@@ -9989,7 +9993,7 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B721" t="s">
         <v>61</v>
@@ -10000,18 +10004,18 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B722" t="s">
         <v>63</v>
       </c>
       <c r="E722" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B723" t="s">
         <v>65</v>
@@ -10022,18 +10026,18 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B724" t="s">
         <v>67</v>
       </c>
       <c r="E724" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B725" t="s">
         <v>69</v>
@@ -10044,29 +10048,29 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B726" t="s">
         <v>71</v>
       </c>
       <c r="E726" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B727" t="s">
         <v>73</v>
       </c>
       <c r="E727" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B728" t="s">
         <v>75</v>
@@ -10077,7 +10081,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B729" t="s">
         <v>77</v>
@@ -10088,18 +10092,18 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B730" t="s">
         <v>79</v>
       </c>
       <c r="E730" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B731" t="s">
         <v>81</v>
@@ -10108,9 +10112,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B732" t="s">
         <v>100</v>
@@ -10125,9 +10129,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D733" t="s">
         <v>11</v>
@@ -10136,9 +10140,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D734" t="s">
         <v>13</v>
@@ -10147,9 +10151,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D735" t="s">
         <v>15</v>
@@ -10158,9 +10162,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D736" t="s">
         <v>103</v>
@@ -10169,9 +10173,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D737" t="s">
         <v>21</v>
@@ -10180,9 +10184,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D738" t="s">
         <v>110</v>
@@ -10191,20 +10195,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D739" t="s">
         <v>112</v>
       </c>
       <c r="E739" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B740" t="s">
         <v>27</v>
@@ -10219,9 +10223,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D741" t="s">
         <v>11</v>
@@ -10230,9 +10234,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D742" t="s">
         <v>13</v>
@@ -10241,9 +10245,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D743" t="s">
         <v>15</v>
@@ -10252,9 +10256,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D744" t="s">
         <v>29</v>
@@ -10263,9 +10267,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D745" t="s">
         <v>35</v>
@@ -10274,9 +10278,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D746" t="s">
         <v>33</v>
@@ -10285,9 +10289,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D747" t="s">
         <v>31</v>
@@ -10296,9 +10300,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B748" t="s">
         <v>52</v>
@@ -10307,20 +10311,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B749" t="s">
         <v>54</v>
       </c>
       <c r="E749" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B750" t="s">
         <v>56</v>
@@ -10329,9 +10333,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B751" t="s">
         <v>58</v>
@@ -10340,9 +10344,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B752" t="s">
         <v>60</v>
@@ -10351,20 +10355,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B753" t="s">
         <v>61</v>
       </c>
       <c r="E753" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B754" t="s">
         <v>63</v>
@@ -10373,9 +10377,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B755" t="s">
         <v>65</v>
@@ -10384,9 +10388,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B756" t="s">
         <v>67</v>
@@ -10395,42 +10399,42 @@
         <v>68</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B757" t="s">
         <v>69</v>
       </c>
       <c r="E757" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B758" t="s">
         <v>71</v>
       </c>
       <c r="E758" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B759" t="s">
         <v>73</v>
       </c>
       <c r="E759" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B760" t="s">
         <v>75</v>
@@ -10439,9 +10443,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B761" t="s">
         <v>77</v>
@@ -10450,31 +10454,31 @@
         <v>78</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B762" t="s">
         <v>79</v>
       </c>
       <c r="E762" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B763" t="s">
         <v>81</v>
       </c>
       <c r="E763" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="764" spans="1:5" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A764" t="s">
-        <v>395</v>
       </c>
       <c r="B764" t="s">
         <v>100</v>
@@ -10489,9 +10493,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D765" t="s">
         <v>11</v>
@@ -10500,9 +10504,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D766" t="s">
         <v>13</v>
@@ -10511,9 +10515,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D767" t="s">
         <v>15</v>
@@ -10522,9 +10526,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D768" t="s">
         <v>103</v>
@@ -10533,9 +10537,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D769" t="s">
         <v>107</v>
@@ -10544,9 +10548,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D770" t="s">
         <v>21</v>
@@ -10555,9 +10559,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D771" t="s">
         <v>110</v>
@@ -10566,9 +10570,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D772" t="s">
         <v>112</v>
@@ -10577,9 +10581,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B773" t="s">
         <v>100</v>
@@ -10594,9 +10598,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D774" t="s">
         <v>11</v>
@@ -10605,9 +10609,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D775" t="s">
         <v>13</v>
@@ -10616,9 +10620,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D776" t="s">
         <v>15</v>
@@ -10627,9 +10631,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D777" t="s">
         <v>103</v>
@@ -10638,9 +10642,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D778" t="s">
         <v>107</v>
@@ -10649,9 +10653,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D779" t="s">
         <v>21</v>
@@ -10660,9 +10664,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D780" t="s">
         <v>110</v>
@@ -10671,9 +10675,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D781" t="s">
         <v>112</v>
@@ -10682,9 +10686,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B782" t="s">
         <v>27</v>
@@ -10699,9 +10703,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D783" t="s">
         <v>11</v>
@@ -10710,9 +10714,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D784" t="s">
         <v>13</v>
@@ -10721,9 +10725,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D785" t="s">
         <v>15</v>
@@ -10732,9 +10736,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D786" t="s">
         <v>29</v>
@@ -10743,9 +10747,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D787" t="s">
         <v>31</v>
@@ -10754,9 +10758,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D788" t="s">
         <v>33</v>
@@ -10765,9 +10769,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D789" t="s">
         <v>35</v>
@@ -10776,9 +10780,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B790" t="s">
         <v>37</v>
@@ -10793,9 +10797,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D791" t="s">
         <v>11</v>
@@ -10804,9 +10808,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D792" t="s">
         <v>13</v>
@@ -10815,9 +10819,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D793" t="s">
         <v>15</v>
@@ -10826,9 +10830,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D794" t="s">
         <v>41</v>
@@ -10837,20 +10841,20 @@
         <v>313</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D795" t="s">
         <v>43</v>
       </c>
       <c r="E795" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D796" t="s">
         <v>45</v>
@@ -10859,9 +10863,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D797" t="s">
         <v>47</v>
@@ -10870,9 +10874,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D798" t="s">
         <v>49</v>
@@ -10881,9 +10885,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D799" t="s">
         <v>50</v>
@@ -10892,9 +10896,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B800" t="s">
         <v>52</v>
@@ -10903,20 +10907,20 @@
         <v>168</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B801" t="s">
         <v>54</v>
       </c>
       <c r="E801" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B802" t="s">
         <v>56</v>
@@ -10925,9 +10929,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B803" t="s">
         <v>58</v>
@@ -10936,9 +10940,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B804" t="s">
         <v>60</v>
@@ -10947,31 +10951,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B805" t="s">
         <v>61</v>
       </c>
       <c r="E805" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B806" t="s">
         <v>63</v>
       </c>
       <c r="E806" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B807" t="s">
         <v>65</v>
@@ -10980,53 +10984,53 @@
         <v>173</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B808" t="s">
         <v>67</v>
       </c>
       <c r="E808" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B809" t="s">
         <v>69</v>
       </c>
       <c r="E809" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B810" t="s">
         <v>71</v>
       </c>
       <c r="E810" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B811" t="s">
         <v>73</v>
       </c>
       <c r="E811" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B812" t="s">
         <v>75</v>
@@ -11035,9 +11039,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B813" t="s">
         <v>77</v>
@@ -11046,9 +11050,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B814" t="s">
         <v>79</v>
@@ -11057,9 +11061,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B815" t="s">
         <v>81</v>
@@ -11069,13 +11073,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E815" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="post_4_20251201_083303_img2.jpg"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E815" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
